--- a/entradas/entradas.xlsx
+++ b/entradas/entradas.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriela.freitas\Repositorios\LNGinventoryopt\entradas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74D54-D9B2-4FAE-8693-3DB7A722AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Cen1"/>
+    <sheet name="Cen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -132,50 +151,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -227,71 +246,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,7 +338,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -342,11 +361,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -355,13 +374,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,7 +390,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -380,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -389,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,10 +416,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -465,36 +484,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -570,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K2" s="5">
         <v>1300</v>
@@ -585,13 +594,13 @@
         <v>812</v>
       </c>
       <c r="O2" s="5">
-        <f>IF(SUM(B2:E2)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P2" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -620,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K3" s="5">
         <v>1300</v>
@@ -635,13 +644,13 @@
         <v>812</v>
       </c>
       <c r="O3" s="5">
-        <f>IF(SUM(B3:E3)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P3" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K4" s="5">
         <v>1300</v>
@@ -685,13 +694,13 @@
         <v>812</v>
       </c>
       <c r="O4" s="5">
-        <f>IF(SUM(B4:E4)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P4" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -720,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K5" s="5">
         <v>1300</v>
@@ -735,13 +744,13 @@
         <v>812</v>
       </c>
       <c r="O5" s="5">
-        <f>IF(SUM(B5:E5)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P5" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K6" s="5">
         <v>1300</v>
@@ -785,13 +794,13 @@
         <v>812</v>
       </c>
       <c r="O6" s="5">
-        <f>IF(SUM(B6:E6)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P6" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K7" s="5">
         <v>1300</v>
@@ -835,13 +844,13 @@
         <v>812</v>
       </c>
       <c r="O7" s="5">
-        <f>IF(SUM(B7:E7)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P7" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K8" s="5">
         <v>1300</v>
@@ -885,13 +894,13 @@
         <v>812</v>
       </c>
       <c r="O8" s="5">
-        <f>IF(SUM(B8:E8)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P8" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K9" s="5">
         <v>1300</v>
@@ -935,13 +944,13 @@
         <v>812</v>
       </c>
       <c r="O9" s="5">
-        <f>IF(SUM(B9:E9)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P9" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K10" s="5">
         <v>1300</v>
@@ -985,13 +994,13 @@
         <v>812</v>
       </c>
       <c r="O10" s="5">
-        <f>IF(SUM(B10:E10)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P10" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K11" s="5">
         <v>1300</v>
@@ -1035,13 +1044,13 @@
         <v>812</v>
       </c>
       <c r="O11" s="5">
-        <f>IF(SUM(B11:E11)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P11" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K12" s="5">
         <v>1300</v>
@@ -1085,13 +1094,13 @@
         <v>812</v>
       </c>
       <c r="O12" s="5">
-        <f>IF(SUM(B12:E12)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K13" s="5">
         <v>1300</v>
@@ -1135,13 +1144,13 @@
         <v>812</v>
       </c>
       <c r="O13" s="5">
-        <f>IF(SUM(B13:E13)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K14" s="5">
         <v>1300</v>
@@ -1185,13 +1194,13 @@
         <v>812</v>
       </c>
       <c r="O14" s="5">
-        <f>IF(SUM(B14:E14)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K15" s="5">
         <v>1300</v>
@@ -1235,13 +1244,13 @@
         <v>812</v>
       </c>
       <c r="O15" s="5">
-        <f>IF(SUM(B15:E15)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K16" s="5">
         <v>1300</v>
@@ -1285,13 +1294,13 @@
         <v>812</v>
       </c>
       <c r="O16" s="5">
-        <f>IF(SUM(B16:E16)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K17" s="5">
         <v>1300</v>
@@ -1335,13 +1344,13 @@
         <v>812</v>
       </c>
       <c r="O17" s="5">
-        <f>IF(SUM(B17:E17)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K18" s="5">
         <v>1300</v>
@@ -1385,13 +1394,13 @@
         <v>812</v>
       </c>
       <c r="O18" s="5">
-        <f>IF(SUM(B18:E18)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P18" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K19" s="5">
         <v>1300</v>
@@ -1435,13 +1444,13 @@
         <v>812</v>
       </c>
       <c r="O19" s="5">
-        <f>IF(SUM(B19:E19)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P19" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K20" s="5">
         <v>1300</v>
@@ -1485,13 +1494,13 @@
         <v>812</v>
       </c>
       <c r="O20" s="5">
-        <f>IF(SUM(B20:E20)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P20" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K21" s="5">
         <v>1300</v>
@@ -1535,13 +1544,13 @@
         <v>812</v>
       </c>
       <c r="O21" s="5">
-        <f>IF(SUM(B21:E21)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P21" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K22" s="5">
         <v>1300</v>
@@ -1585,13 +1594,13 @@
         <v>812</v>
       </c>
       <c r="O22" s="5">
-        <f>IF(SUM(B22:E22)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P22" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K23" s="5">
         <v>1300</v>
@@ -1635,13 +1644,13 @@
         <v>812</v>
       </c>
       <c r="O23" s="5">
-        <f>IF(SUM(B23:E23)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P23" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1670,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K24" s="5">
         <v>1300</v>
@@ -1685,13 +1694,13 @@
         <v>812</v>
       </c>
       <c r="O24" s="5">
-        <f>IF(SUM(B24:E24)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P24" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K25" s="5">
         <v>1300</v>
@@ -1735,13 +1744,13 @@
         <v>812</v>
       </c>
       <c r="O25" s="5">
-        <f>IF(SUM(B25:E25)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1770,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K26" s="5">
         <v>1300</v>
@@ -1785,13 +1794,13 @@
         <v>812</v>
       </c>
       <c r="O26" s="5">
-        <f>IF(SUM(B26:E26)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P26" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K27" s="5">
         <v>1300</v>
@@ -1835,13 +1844,13 @@
         <v>812</v>
       </c>
       <c r="O27" s="5">
-        <f>IF(SUM(B27:E27)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P27" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K28" s="5">
         <v>1300</v>
@@ -1885,13 +1894,13 @@
         <v>812</v>
       </c>
       <c r="O28" s="5">
-        <f>IF(SUM(B28:E28)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P28" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K29" s="5">
         <v>1300</v>
@@ -1935,13 +1944,13 @@
         <v>812</v>
       </c>
       <c r="O29" s="5">
-        <f>IF(SUM(B29:E29)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P29" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K30" s="5">
         <v>1300</v>
@@ -1985,13 +1994,13 @@
         <v>812</v>
       </c>
       <c r="O30" s="5">
-        <f>IF(SUM(B30:E30)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P30" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K31" s="5">
         <v>1300</v>
@@ -2035,13 +2044,13 @@
         <v>812</v>
       </c>
       <c r="O31" s="5">
-        <f>IF(SUM(B31:E31)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P31" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K32" s="5">
         <v>1300</v>
@@ -2085,13 +2094,13 @@
         <v>812</v>
       </c>
       <c r="O32" s="5">
-        <f>IF(SUM(B32:E32)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P32" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K33" s="5">
         <v>1300</v>
@@ -2135,13 +2144,13 @@
         <v>812</v>
       </c>
       <c r="O33" s="5">
-        <f>IF(SUM(B33:E33)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P33" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K34" s="5">
         <v>1300</v>
@@ -2185,13 +2194,13 @@
         <v>812</v>
       </c>
       <c r="O34" s="5">
-        <f>IF(SUM(B34:E34)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P34" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K35" s="5">
         <v>1300</v>
@@ -2235,13 +2244,13 @@
         <v>812</v>
       </c>
       <c r="O35" s="5">
-        <f>IF(SUM(B35:E35)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P35" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K36" s="5">
         <v>1300</v>
@@ -2285,13 +2294,13 @@
         <v>812</v>
       </c>
       <c r="O36" s="5">
-        <f>IF(SUM(B36:E36)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2320,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K37" s="5">
         <v>1300</v>
@@ -2335,13 +2344,13 @@
         <v>812</v>
       </c>
       <c r="O37" s="5">
-        <f>IF(SUM(B37:E37)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P37" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2370,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K38" s="5">
         <v>1300</v>
@@ -2385,13 +2394,13 @@
         <v>812</v>
       </c>
       <c r="O38" s="5">
-        <f>IF(SUM(B38:E38)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P38" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K39" s="5">
         <v>1300</v>
@@ -2435,13 +2444,13 @@
         <v>812</v>
       </c>
       <c r="O39" s="5">
-        <f>IF(SUM(B39:E39)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P39" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K40" s="5">
         <v>1300</v>
@@ -2485,13 +2494,13 @@
         <v>812</v>
       </c>
       <c r="O40" s="5">
-        <f>IF(SUM(B40:E40)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P40" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K41" s="5">
         <v>1300</v>
@@ -2535,13 +2544,13 @@
         <v>812</v>
       </c>
       <c r="O41" s="5">
-        <f>IF(SUM(B41:E41)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P41" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K42" s="5">
         <v>1300</v>
@@ -2585,13 +2594,13 @@
         <v>812</v>
       </c>
       <c r="O42" s="5">
-        <f>IF(SUM(B42:E42)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P42" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K43" s="5">
         <v>1300</v>
@@ -2635,13 +2644,13 @@
         <v>812</v>
       </c>
       <c r="O43" s="5">
-        <f>IF(SUM(B43:E43)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P43" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K44" s="5">
         <v>1300</v>
@@ -2685,13 +2694,13 @@
         <v>812</v>
       </c>
       <c r="O44" s="5">
-        <f>IF(SUM(B44:E44)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P44" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K45" s="5">
         <v>1300</v>
@@ -2735,13 +2744,13 @@
         <v>812</v>
       </c>
       <c r="O45" s="5">
-        <f>IF(SUM(B45:E45)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P45" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2770,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K46" s="5">
         <v>1300</v>
@@ -2785,13 +2794,13 @@
         <v>812</v>
       </c>
       <c r="O46" s="5">
-        <f>IF(SUM(B46:E46)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P46" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K47" s="5">
         <v>1300</v>
@@ -2835,13 +2844,13 @@
         <v>812</v>
       </c>
       <c r="O47" s="5">
-        <f>IF(SUM(B47:E47)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P47" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K48" s="5">
         <v>1300</v>
@@ -2885,13 +2894,13 @@
         <v>812</v>
       </c>
       <c r="O48" s="5">
-        <f>IF(SUM(B48:E48)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P48" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2920,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K49" s="5">
         <v>1300</v>
@@ -2935,13 +2944,13 @@
         <v>812</v>
       </c>
       <c r="O49" s="5">
-        <f>IF(SUM(B49:E49)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P49" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K50" s="5">
         <v>1300</v>
@@ -2985,13 +2994,13 @@
         <v>812</v>
       </c>
       <c r="O50" s="5">
-        <f>IF(SUM(B50:E50)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P50" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K51" s="5">
         <v>1300</v>
@@ -3035,13 +3044,13 @@
         <v>812</v>
       </c>
       <c r="O51" s="5">
-        <f>IF(SUM(B51:E51)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P51" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K52" s="5">
         <v>1300</v>
@@ -3085,13 +3094,13 @@
         <v>812</v>
       </c>
       <c r="O52" s="5">
-        <f>IF(SUM(B52:E52)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P52" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K53" s="5">
         <v>1300</v>
@@ -3135,13 +3144,13 @@
         <v>812</v>
       </c>
       <c r="O53" s="5">
-        <f>IF(SUM(B53:E53)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P53" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3170,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K54" s="5">
         <v>1300</v>
@@ -3185,13 +3194,13 @@
         <v>812</v>
       </c>
       <c r="O54" s="5">
-        <f>IF(SUM(B54:E54)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P54" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K55" s="5">
         <v>1300</v>
@@ -3235,13 +3244,13 @@
         <v>812</v>
       </c>
       <c r="O55" s="5">
-        <f>IF(SUM(B55:E55)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P55" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3270,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K56" s="5">
         <v>1300</v>
@@ -3285,13 +3294,13 @@
         <v>812</v>
       </c>
       <c r="O56" s="5">
-        <f>IF(SUM(B56:E56)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P56" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K57" s="5">
         <v>1300</v>
@@ -3335,13 +3344,13 @@
         <v>812</v>
       </c>
       <c r="O57" s="5">
-        <f>IF(SUM(B57:E57)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P57" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3370,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K58" s="5">
         <v>1300</v>
@@ -3385,13 +3394,13 @@
         <v>812</v>
       </c>
       <c r="O58" s="5">
-        <f>IF(SUM(B58:E58)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P58" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K59" s="5">
         <v>1300</v>
@@ -3435,13 +3444,13 @@
         <v>812</v>
       </c>
       <c r="O59" s="5">
-        <f>IF(SUM(B59:E59)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P59" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K60" s="5">
         <v>1300</v>
@@ -3485,13 +3494,13 @@
         <v>812</v>
       </c>
       <c r="O60" s="5">
-        <f>IF(SUM(B60:E60)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P60" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K61" s="5">
         <v>1300</v>
@@ -3535,13 +3544,13 @@
         <v>812</v>
       </c>
       <c r="O61" s="5">
-        <f>IF(SUM(B61:E61)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P61" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K62" s="5">
         <v>1300</v>
@@ -3585,13 +3594,13 @@
         <v>812</v>
       </c>
       <c r="O62" s="5">
-        <f>IF(SUM(B62:E62)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P62" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3620,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K63" s="5">
         <v>1300</v>
@@ -3635,13 +3644,13 @@
         <v>812</v>
       </c>
       <c r="O63" s="5">
-        <f>IF(SUM(B63:E63)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P63" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K64" s="5">
         <v>1300</v>
@@ -3685,13 +3694,13 @@
         <v>812</v>
       </c>
       <c r="O64" s="5">
-        <f>IF(SUM(B64:E64)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P64" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K65" s="5">
         <v>1300</v>
@@ -3735,13 +3744,13 @@
         <v>812</v>
       </c>
       <c r="O65" s="5">
-        <f>IF(SUM(B65:E65)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P65" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K66" s="5">
         <v>1300</v>
@@ -3785,13 +3794,13 @@
         <v>812</v>
       </c>
       <c r="O66" s="5">
-        <f>IF(SUM(B66:E66)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P66" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K67" s="5">
         <v>1300</v>
@@ -3835,13 +3844,13 @@
         <v>812</v>
       </c>
       <c r="O67" s="5">
-        <f>IF(SUM(B67:E67)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P67" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K68" s="5">
         <v>1300</v>
@@ -3885,13 +3894,13 @@
         <v>812</v>
       </c>
       <c r="O68" s="5">
-        <f>IF(SUM(B68:E68)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P68" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K69" s="5">
         <v>1300</v>
@@ -3935,13 +3944,13 @@
         <v>812</v>
       </c>
       <c r="O69" s="5">
-        <f>IF(SUM(B69:E69)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P69" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3970,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K70" s="5">
         <v>1300</v>
@@ -3985,13 +3994,13 @@
         <v>812</v>
       </c>
       <c r="O70" s="5">
-        <f>IF(SUM(B70:E70)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P70" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K71" s="5">
         <v>1300</v>
@@ -4035,13 +4044,13 @@
         <v>812</v>
       </c>
       <c r="O71" s="5">
-        <f>IF(SUM(B71:E71)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P71" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -4070,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K72" s="5">
         <v>1300</v>
@@ -4085,13 +4094,13 @@
         <v>812</v>
       </c>
       <c r="O72" s="5">
-        <f>IF(SUM(B72:E72)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P72" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K73" s="5">
         <v>1300</v>
@@ -4135,13 +4144,13 @@
         <v>812</v>
       </c>
       <c r="O73" s="5">
-        <f>IF(SUM(B73:E73)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P73" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K74" s="5">
         <v>1300</v>
@@ -4185,13 +4194,13 @@
         <v>812</v>
       </c>
       <c r="O74" s="5">
-        <f>IF(SUM(B74:E74)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P74" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K75" s="5">
         <v>1300</v>
@@ -4235,13 +4244,13 @@
         <v>812</v>
       </c>
       <c r="O75" s="5">
-        <f>IF(SUM(B75:E75)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P75" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K76" s="5">
         <v>1300</v>
@@ -4285,13 +4294,13 @@
         <v>812</v>
       </c>
       <c r="O76" s="5">
-        <f>IF(SUM(B76:E76)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P76" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4320,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K77" s="5">
         <v>1300</v>
@@ -4335,13 +4344,13 @@
         <v>812</v>
       </c>
       <c r="O77" s="5">
-        <f>IF(SUM(B77:E77)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P77" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K78" s="5">
         <v>1300</v>
@@ -4385,13 +4394,13 @@
         <v>812</v>
       </c>
       <c r="O78" s="5">
-        <f>IF(SUM(B78:E78)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P78" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K79" s="5">
         <v>1300</v>
@@ -4435,13 +4444,13 @@
         <v>812</v>
       </c>
       <c r="O79" s="5">
-        <f>IF(SUM(B79:E79)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P79" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4470,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K80" s="5">
         <v>1300</v>
@@ -4485,13 +4494,13 @@
         <v>812</v>
       </c>
       <c r="O80" s="5">
-        <f>IF(SUM(B80:E80)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P80" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4520,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K81" s="5">
         <v>1300</v>
@@ -4535,13 +4544,13 @@
         <v>812</v>
       </c>
       <c r="O81" s="5">
-        <f>IF(SUM(B81:E81)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P81" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K82" s="5">
         <v>1300</v>
@@ -4585,13 +4594,13 @@
         <v>812</v>
       </c>
       <c r="O82" s="5">
-        <f>IF(SUM(B82:E82)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P82" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K83" s="5">
         <v>1300</v>
@@ -4635,13 +4644,13 @@
         <v>812</v>
       </c>
       <c r="O83" s="5">
-        <f>IF(SUM(B83:E83)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P83" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K84" s="5">
         <v>1300</v>
@@ -4685,13 +4694,13 @@
         <v>812</v>
       </c>
       <c r="O84" s="5">
-        <f>IF(SUM(B84:E84)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P84" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K85" s="5">
         <v>1300</v>
@@ -4735,13 +4744,13 @@
         <v>812</v>
       </c>
       <c r="O85" s="5">
-        <f>IF(SUM(B85:E85)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P85" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K86" s="5">
         <v>1300</v>
@@ -4785,13 +4794,13 @@
         <v>812</v>
       </c>
       <c r="O86" s="5">
-        <f>IF(SUM(B86:E86)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P86" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K87" s="5">
         <v>1300</v>
@@ -4835,13 +4844,13 @@
         <v>812</v>
       </c>
       <c r="O87" s="5">
-        <f>IF(SUM(B87:E87)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P87" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K88" s="5">
         <v>1300</v>
@@ -4885,13 +4894,13 @@
         <v>812</v>
       </c>
       <c r="O88" s="5">
-        <f>IF(SUM(B88:E88)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P88" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K89" s="5">
         <v>1300</v>
@@ -4935,13 +4944,13 @@
         <v>812</v>
       </c>
       <c r="O89" s="5">
-        <f>IF(SUM(B89:E89)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P89" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K90" s="5">
         <v>1300</v>
@@ -4985,13 +4994,13 @@
         <v>812</v>
       </c>
       <c r="O90" s="5">
-        <f>IF(SUM(B90:E90)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P90" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K91" s="5">
         <v>1300</v>
@@ -5035,13 +5044,13 @@
         <v>812</v>
       </c>
       <c r="O91" s="5">
-        <f>IF(SUM(B91:E91)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P91" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K92" s="5">
         <v>1300</v>
@@ -5085,13 +5094,13 @@
         <v>812</v>
       </c>
       <c r="O92" s="5">
-        <f>IF(SUM(B92:E92)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P92" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K93" s="5">
         <v>1300</v>
@@ -5135,13 +5144,13 @@
         <v>812</v>
       </c>
       <c r="O93" s="5">
-        <f>IF(SUM(B93:E93)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P93" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -5170,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K94" s="5">
         <v>1300</v>
@@ -5185,13 +5194,13 @@
         <v>812</v>
       </c>
       <c r="O94" s="5">
-        <f>IF(SUM(B94:E94)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P94" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K95" s="5">
         <v>1300</v>
@@ -5235,13 +5244,13 @@
         <v>812</v>
       </c>
       <c r="O95" s="5">
-        <f>IF(SUM(B95:E95)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P95" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -5270,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K96" s="5">
         <v>1300</v>
@@ -5285,13 +5294,13 @@
         <v>812</v>
       </c>
       <c r="O96" s="5">
-        <f>IF(SUM(B96:E96)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P96" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -5320,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K97" s="5">
         <v>1300</v>
@@ -5335,13 +5344,13 @@
         <v>812</v>
       </c>
       <c r="O97" s="5">
-        <f>IF(SUM(B97:E97)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P97" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -5370,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K98" s="5">
         <v>1300</v>
@@ -5385,13 +5394,13 @@
         <v>812</v>
       </c>
       <c r="O98" s="5">
-        <f>IF(SUM(B98:E98)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P98" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -5420,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K99" s="5">
         <v>1300</v>
@@ -5435,13 +5444,13 @@
         <v>812</v>
       </c>
       <c r="O99" s="5">
-        <f>IF(SUM(B99:E99)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P99" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K100" s="5">
         <v>1300</v>
@@ -5485,13 +5494,13 @@
         <v>812</v>
       </c>
       <c r="O100" s="5">
-        <f>IF(SUM(B100:E100)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P100" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K101" s="5">
         <v>1300</v>
@@ -5535,13 +5544,13 @@
         <v>812</v>
       </c>
       <c r="O101" s="5">
-        <f>IF(SUM(B101:E101)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P101" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K102" s="5">
         <v>1300</v>
@@ -5585,13 +5594,13 @@
         <v>812</v>
       </c>
       <c r="O102" s="5">
-        <f>IF(SUM(B102:E102)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P102" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -5620,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K103" s="5">
         <v>1300</v>
@@ -5635,13 +5644,13 @@
         <v>812</v>
       </c>
       <c r="O103" s="5">
-        <f>IF(SUM(B103:E103)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P103" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K104" s="5">
         <v>1300</v>
@@ -5685,13 +5694,13 @@
         <v>812</v>
       </c>
       <c r="O104" s="5">
-        <f>IF(SUM(B104:E104)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P104" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -5720,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K105" s="5">
         <v>1300</v>
@@ -5735,13 +5744,13 @@
         <v>812</v>
       </c>
       <c r="O105" s="5">
-        <f>IF(SUM(B105:E105)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P105" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K106" s="5">
         <v>1300</v>
@@ -5785,13 +5794,13 @@
         <v>812</v>
       </c>
       <c r="O106" s="5">
-        <f>IF(SUM(B106:E106)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P106" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K107" s="5">
         <v>1300</v>
@@ -5835,13 +5844,13 @@
         <v>812</v>
       </c>
       <c r="O107" s="5">
-        <f>IF(SUM(B107:E107)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P107" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K108" s="5">
         <v>1300</v>
@@ -5885,13 +5894,13 @@
         <v>812</v>
       </c>
       <c r="O108" s="5">
-        <f>IF(SUM(B108:E108)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P108" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K109" s="5">
         <v>1300</v>
@@ -5935,13 +5944,13 @@
         <v>812</v>
       </c>
       <c r="O109" s="5">
-        <f>IF(SUM(B109:E109)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P109" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -5970,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K110" s="5">
         <v>1300</v>
@@ -5985,13 +5994,13 @@
         <v>812</v>
       </c>
       <c r="O110" s="5">
-        <f>IF(SUM(B110:E110)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P110" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6020,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K111" s="5">
         <v>1300</v>
@@ -6035,13 +6044,13 @@
         <v>812</v>
       </c>
       <c r="O111" s="5">
-        <f>IF(SUM(B111:E111)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P111" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6070,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K112" s="5">
         <v>1300</v>
@@ -6085,13 +6094,13 @@
         <v>812</v>
       </c>
       <c r="O112" s="5">
-        <f>IF(SUM(B112:E112)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P112" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6120,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K113" s="5">
         <v>1300</v>
@@ -6135,13 +6144,13 @@
         <v>812</v>
       </c>
       <c r="O113" s="5">
-        <f>IF(SUM(B113:E113)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P113" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6170,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K114" s="5">
         <v>1300</v>
@@ -6185,13 +6194,13 @@
         <v>812</v>
       </c>
       <c r="O114" s="5">
-        <f>IF(SUM(B114:E114)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P114" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K115" s="5">
         <v>1300</v>
@@ -6235,13 +6244,13 @@
         <v>812</v>
       </c>
       <c r="O115" s="5">
-        <f>IF(SUM(B115:E115)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P115" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K116" s="5">
         <v>1300</v>
@@ -6285,13 +6294,13 @@
         <v>812</v>
       </c>
       <c r="O116" s="5">
-        <f>IF(SUM(B116:E116)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P116" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K117" s="5">
         <v>1300</v>
@@ -6335,13 +6344,13 @@
         <v>812</v>
       </c>
       <c r="O117" s="5">
-        <f>IF(SUM(B117:E117)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P117" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6370,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K118" s="5">
         <v>1300</v>
@@ -6385,13 +6394,13 @@
         <v>812</v>
       </c>
       <c r="O118" s="5">
-        <f>IF(SUM(B118:E118)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P118" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6420,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K119" s="5">
         <v>1300</v>
@@ -6435,13 +6444,13 @@
         <v>812</v>
       </c>
       <c r="O119" s="5">
-        <f>IF(SUM(B119:E119)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P119" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K120" s="5">
         <v>1300</v>
@@ -6485,13 +6494,13 @@
         <v>812</v>
       </c>
       <c r="O120" s="5">
-        <f>IF(SUM(B120:E120)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P120" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -6520,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K121" s="5">
         <v>1300</v>
@@ -6535,13 +6544,13 @@
         <v>812</v>
       </c>
       <c r="O121" s="5">
-        <f>IF(SUM(B121:E121)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P121" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -6570,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K122" s="5">
         <v>1300</v>
@@ -6585,13 +6594,13 @@
         <v>812</v>
       </c>
       <c r="O122" s="5">
-        <f>IF(SUM(B122:E122)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P122" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K123" s="5">
         <v>1300</v>
@@ -6635,13 +6644,13 @@
         <v>812</v>
       </c>
       <c r="O123" s="5">
-        <f>IF(SUM(B123:E123)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P123" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -6670,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K124" s="5">
         <v>1300</v>
@@ -6685,13 +6694,13 @@
         <v>812</v>
       </c>
       <c r="O124" s="5">
-        <f>IF(SUM(B124:E124)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P124" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K125" s="5">
         <v>1300</v>
@@ -6735,13 +6744,13 @@
         <v>812</v>
       </c>
       <c r="O125" s="5">
-        <f>IF(SUM(B125:E125)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P125" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -6770,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K126" s="5">
         <v>1300</v>
@@ -6785,13 +6794,13 @@
         <v>812</v>
       </c>
       <c r="O126" s="5">
-        <f>IF(SUM(B126:E126)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P126" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K127" s="5">
         <v>1300</v>
@@ -6835,13 +6844,13 @@
         <v>812</v>
       </c>
       <c r="O127" s="5">
-        <f>IF(SUM(B127:E127)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P127" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K128" s="5">
         <v>1300</v>
@@ -6885,13 +6894,13 @@
         <v>812</v>
       </c>
       <c r="O128" s="5">
-        <f>IF(SUM(B128:E128)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P128" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -6920,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K129" s="5">
         <v>1300</v>
@@ -6935,13 +6944,13 @@
         <v>812</v>
       </c>
       <c r="O129" s="5">
-        <f>IF(SUM(B129:E129)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P129" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K130" s="5">
         <v>1300</v>
@@ -6985,13 +6994,13 @@
         <v>812</v>
       </c>
       <c r="O130" s="5">
-        <f>IF(SUM(B130:E130)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P130" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -7020,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K131" s="5">
         <v>1300</v>
@@ -7035,13 +7044,13 @@
         <v>812</v>
       </c>
       <c r="O131" s="5">
-        <f>IF(SUM(B131:E131)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P131" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -7070,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K132" s="5">
         <v>1300</v>
@@ -7085,13 +7094,13 @@
         <v>812</v>
       </c>
       <c r="O132" s="5">
-        <f>IF(SUM(B132:E132)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P132" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K133" s="5">
         <v>1300</v>
@@ -7135,13 +7144,13 @@
         <v>812</v>
       </c>
       <c r="O133" s="5">
-        <f>IF(SUM(B133:E133)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P133" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K134" s="5">
         <v>1300</v>
@@ -7185,13 +7194,13 @@
         <v>812</v>
       </c>
       <c r="O134" s="5">
-        <f>IF(SUM(B134:E134)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P134" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K135" s="5">
         <v>1300</v>
@@ -7235,13 +7244,13 @@
         <v>812</v>
       </c>
       <c r="O135" s="5">
-        <f>IF(SUM(B135:E135)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P135" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -7270,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K136" s="5">
         <v>1300</v>
@@ -7285,13 +7294,13 @@
         <v>812</v>
       </c>
       <c r="O136" s="5">
-        <f>IF(SUM(B136:E136)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P136" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7320,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K137" s="5">
         <v>1300</v>
@@ -7335,13 +7344,13 @@
         <v>812</v>
       </c>
       <c r="O137" s="5">
-        <f>IF(SUM(B137:E137)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P137" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -7370,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K138" s="5">
         <v>1300</v>
@@ -7385,13 +7394,13 @@
         <v>812</v>
       </c>
       <c r="O138" s="5">
-        <f>IF(SUM(B138:E138)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P138" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -7420,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K139" s="5">
         <v>1300</v>
@@ -7435,13 +7444,13 @@
         <v>812</v>
       </c>
       <c r="O139" s="5">
-        <f>IF(SUM(B139:E139)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P139" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -7470,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K140" s="5">
         <v>1300</v>
@@ -7485,13 +7494,13 @@
         <v>812</v>
       </c>
       <c r="O140" s="5">
-        <f>IF(SUM(B140:E140)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P140" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -7520,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K141" s="5">
         <v>1300</v>
@@ -7535,13 +7544,13 @@
         <v>812</v>
       </c>
       <c r="O141" s="5">
-        <f>IF(SUM(B141:E141)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P141" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -7570,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K142" s="5">
         <v>1300</v>
@@ -7585,13 +7594,13 @@
         <v>812</v>
       </c>
       <c r="O142" s="5">
-        <f>IF(SUM(B142:E142)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P142" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K143" s="5">
         <v>1300</v>
@@ -7635,13 +7644,13 @@
         <v>812</v>
       </c>
       <c r="O143" s="5">
-        <f>IF(SUM(B143:E143)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P143" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K144" s="5">
         <v>1300</v>
@@ -7685,13 +7694,13 @@
         <v>812</v>
       </c>
       <c r="O144" s="5">
-        <f>IF(SUM(B144:E144)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P144" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -7720,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K145" s="5">
         <v>1300</v>
@@ -7735,13 +7744,13 @@
         <v>812</v>
       </c>
       <c r="O145" s="5">
-        <f>IF(SUM(B145:E145)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P145" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -7770,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K146" s="5">
         <v>1300</v>
@@ -7785,13 +7794,13 @@
         <v>812</v>
       </c>
       <c r="O146" s="5">
-        <f>IF(SUM(B146:E146)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P146" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -7820,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K147" s="5">
         <v>1300</v>
@@ -7835,13 +7844,13 @@
         <v>812</v>
       </c>
       <c r="O147" s="5">
-        <f>IF(SUM(B147:E147)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P147" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -7870,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K148" s="5">
         <v>1300</v>
@@ -7885,13 +7894,13 @@
         <v>812</v>
       </c>
       <c r="O148" s="5">
-        <f>IF(SUM(B148:E148)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P148" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -7920,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K149" s="5">
         <v>1300</v>
@@ -7935,13 +7944,13 @@
         <v>812</v>
       </c>
       <c r="O149" s="5">
-        <f>IF(SUM(B149:E149)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P149" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -7970,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K150" s="5">
         <v>1300</v>
@@ -7985,13 +7994,13 @@
         <v>812</v>
       </c>
       <c r="O150" s="5">
-        <f>IF(SUM(B150:E150)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P150" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K151" s="5">
         <v>1300</v>
@@ -8035,13 +8044,13 @@
         <v>812</v>
       </c>
       <c r="O151" s="5">
-        <f>IF(SUM(B151:E151)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P151" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -8070,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K152" s="5">
         <v>1300</v>
@@ -8085,13 +8094,13 @@
         <v>812</v>
       </c>
       <c r="O152" s="5">
-        <f>IF(SUM(B152:E152)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P152" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -8120,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K153" s="5">
         <v>1300</v>
@@ -8135,13 +8144,13 @@
         <v>812</v>
       </c>
       <c r="O153" s="5">
-        <f>IF(SUM(B153:E153)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P153" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -8170,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K154" s="5">
         <v>1300</v>
@@ -8185,13 +8194,13 @@
         <v>812</v>
       </c>
       <c r="O154" s="5">
-        <f>IF(SUM(B154:E154)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P154" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -8220,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K155" s="5">
         <v>1300</v>
@@ -8235,13 +8244,13 @@
         <v>812</v>
       </c>
       <c r="O155" s="5">
-        <f>IF(SUM(B155:E155)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P155" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K156" s="5">
         <v>1300</v>
@@ -8285,13 +8294,13 @@
         <v>812</v>
       </c>
       <c r="O156" s="5">
-        <f>IF(SUM(B156:E156)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P156" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -8320,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K157" s="5">
         <v>1300</v>
@@ -8335,13 +8344,13 @@
         <v>812</v>
       </c>
       <c r="O157" s="5">
-        <f>IF(SUM(B157:E157)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P157" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -8370,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K158" s="5">
         <v>1300</v>
@@ -8385,13 +8394,13 @@
         <v>812</v>
       </c>
       <c r="O158" s="5">
-        <f>IF(SUM(B158:E158)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P158" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -8420,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K159" s="5">
         <v>1300</v>
@@ -8435,13 +8444,13 @@
         <v>812</v>
       </c>
       <c r="O159" s="5">
-        <f>IF(SUM(B159:E159)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P159" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -8470,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K160" s="5">
         <v>1300</v>
@@ -8485,13 +8494,13 @@
         <v>812</v>
       </c>
       <c r="O160" s="5">
-        <f>IF(SUM(B160:E160)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P160" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K161" s="5">
         <v>1300</v>
@@ -8535,13 +8544,13 @@
         <v>812</v>
       </c>
       <c r="O161" s="5">
-        <f>IF(SUM(B161:E161)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P161" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -8570,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K162" s="5">
         <v>1300</v>
@@ -8585,13 +8594,13 @@
         <v>812</v>
       </c>
       <c r="O162" s="5">
-        <f>IF(SUM(B162:E162)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P162" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K163" s="5">
         <v>1300</v>
@@ -8635,13 +8644,13 @@
         <v>812</v>
       </c>
       <c r="O163" s="5">
-        <f>IF(SUM(B163:E163)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P163" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -8670,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K164" s="5">
         <v>1300</v>
@@ -8685,13 +8694,13 @@
         <v>812</v>
       </c>
       <c r="O164" s="5">
-        <f>IF(SUM(B164:E164)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P164" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -8720,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K165" s="5">
         <v>1300</v>
@@ -8735,13 +8744,13 @@
         <v>812</v>
       </c>
       <c r="O165" s="5">
-        <f>IF(SUM(B165:E165)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P165" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -8770,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K166" s="5">
         <v>1300</v>
@@ -8785,13 +8794,13 @@
         <v>812</v>
       </c>
       <c r="O166" s="5">
-        <f>IF(SUM(B166:E166)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P166" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -8820,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K167" s="5">
         <v>1300</v>
@@ -8835,13 +8844,13 @@
         <v>812</v>
       </c>
       <c r="O167" s="5">
-        <f>IF(SUM(B167:E167)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P167" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -8870,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K168" s="5">
         <v>1300</v>
@@ -8885,13 +8894,13 @@
         <v>812</v>
       </c>
       <c r="O168" s="5">
-        <f>IF(SUM(B168:E168)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P168" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -8920,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K169" s="5">
         <v>1300</v>
@@ -8935,13 +8944,13 @@
         <v>812</v>
       </c>
       <c r="O169" s="5">
-        <f>IF(SUM(B169:E169)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P169" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -8970,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K170" s="5">
         <v>1300</v>
@@ -8985,13 +8994,13 @@
         <v>812</v>
       </c>
       <c r="O170" s="5">
-        <f>IF(SUM(B170:E170)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P170" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -9020,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K171" s="5">
         <v>1300</v>
@@ -9035,13 +9044,13 @@
         <v>812</v>
       </c>
       <c r="O171" s="5">
-        <f>IF(SUM(B171:E171)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P171" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -9070,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K172" s="5">
         <v>1300</v>
@@ -9085,13 +9094,13 @@
         <v>812</v>
       </c>
       <c r="O172" s="5">
-        <f>IF(SUM(B172:E172)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P172" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -9120,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K173" s="5">
         <v>1300</v>
@@ -9135,13 +9144,13 @@
         <v>812</v>
       </c>
       <c r="O173" s="5">
-        <f>IF(SUM(B173:E173)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P173" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -9170,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K174" s="5">
         <v>1300</v>
@@ -9185,13 +9194,13 @@
         <v>812</v>
       </c>
       <c r="O174" s="5">
-        <f>IF(SUM(B174:E174)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P174" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -9220,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K175" s="5">
         <v>1300</v>
@@ -9235,13 +9244,13 @@
         <v>812</v>
       </c>
       <c r="O175" s="5">
-        <f>IF(SUM(B175:E175)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P175" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -9270,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K176" s="5">
         <v>1300</v>
@@ -9285,13 +9294,13 @@
         <v>812</v>
       </c>
       <c r="O176" s="5">
-        <f>IF(SUM(B176:E176)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P176" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -9320,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K177" s="5">
         <v>1300</v>
@@ -9335,13 +9344,13 @@
         <v>812</v>
       </c>
       <c r="O177" s="5">
-        <f>IF(SUM(B177:E177)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P177" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -9370,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K178" s="5">
         <v>1300</v>
@@ -9385,13 +9394,13 @@
         <v>812</v>
       </c>
       <c r="O178" s="5">
-        <f>IF(SUM(B178:E178)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P178" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -9420,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K179" s="5">
         <v>1300</v>
@@ -9435,13 +9444,13 @@
         <v>812</v>
       </c>
       <c r="O179" s="5">
-        <f>IF(SUM(B179:E179)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P179" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -9470,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K180" s="5">
         <v>1300</v>
@@ -9485,13 +9494,13 @@
         <v>812</v>
       </c>
       <c r="O180" s="5">
-        <f>IF(SUM(B180:E180)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P180" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -9520,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K181" s="5">
         <v>1300</v>
@@ -9535,13 +9544,13 @@
         <v>812</v>
       </c>
       <c r="O181" s="5">
-        <f>IF(SUM(B181:E181)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P181" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -9570,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K182" s="5">
         <v>1300</v>
@@ -9585,13 +9594,13 @@
         <v>812</v>
       </c>
       <c r="O182" s="5">
-        <f>IF(SUM(B182:E182)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P182" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -9620,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K183" s="5">
         <v>1300</v>
@@ -9635,13 +9644,13 @@
         <v>812</v>
       </c>
       <c r="O183" s="5">
-        <f>IF(SUM(B183:E183)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P183" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -9670,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K184" s="5">
         <v>1300</v>
@@ -9685,13 +9694,13 @@
         <v>812</v>
       </c>
       <c r="O184" s="5">
-        <f>IF(SUM(B184:E184)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P184" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -9720,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K185" s="5">
         <v>1300</v>
@@ -9735,13 +9744,13 @@
         <v>812</v>
       </c>
       <c r="O185" s="5">
-        <f>IF(SUM(B185:E185)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P185" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -9770,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K186" s="5">
         <v>1300</v>
@@ -9785,13 +9794,13 @@
         <v>812</v>
       </c>
       <c r="O186" s="5">
-        <f>IF(SUM(B186:E186)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P186" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -9820,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K187" s="5">
         <v>1300</v>
@@ -9835,13 +9844,13 @@
         <v>812</v>
       </c>
       <c r="O187" s="5">
-        <f>IF(SUM(B187:E187)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P187" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -9870,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K188" s="5">
         <v>1300</v>
@@ -9885,13 +9894,13 @@
         <v>812</v>
       </c>
       <c r="O188" s="5">
-        <f>IF(SUM(B188:E188)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P188" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -9920,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K189" s="5">
         <v>1300</v>
@@ -9935,13 +9944,13 @@
         <v>812</v>
       </c>
       <c r="O189" s="5">
-        <f>IF(SUM(B189:E189)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P189" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -9970,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K190" s="5">
         <v>1300</v>
@@ -9985,13 +9994,13 @@
         <v>812</v>
       </c>
       <c r="O190" s="5">
-        <f>IF(SUM(B190:E190)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P190" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -10020,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K191" s="5">
         <v>1300</v>
@@ -10035,13 +10044,13 @@
         <v>812</v>
       </c>
       <c r="O191" s="5">
-        <f>IF(SUM(B191:E191)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P191" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -10070,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K192" s="5">
         <v>1300</v>
@@ -10085,13 +10094,13 @@
         <v>812</v>
       </c>
       <c r="O192" s="5">
-        <f>IF(SUM(B192:E192)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P192" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -10120,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K193" s="5">
         <v>1300</v>
@@ -10135,13 +10144,13 @@
         <v>812</v>
       </c>
       <c r="O193" s="5">
-        <f>IF(SUM(B193:E193)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P193" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K194" s="5">
         <v>1300</v>
@@ -10185,13 +10194,13 @@
         <v>812</v>
       </c>
       <c r="O194" s="5">
-        <f>IF(SUM(B194:E194)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P194" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K195" s="5">
         <v>1300</v>
@@ -10235,13 +10244,13 @@
         <v>812</v>
       </c>
       <c r="O195" s="5">
-        <f>IF(SUM(B195:E195)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P195" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -10270,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K196" s="5">
         <v>1300</v>
@@ -10285,13 +10294,13 @@
         <v>812</v>
       </c>
       <c r="O196" s="5">
-        <f>IF(SUM(B196:E196)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P196" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -10320,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K197" s="5">
         <v>1300</v>
@@ -10335,13 +10344,13 @@
         <v>812</v>
       </c>
       <c r="O197" s="5">
-        <f>IF(SUM(B197:E197)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P197" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -10370,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K198" s="5">
         <v>1300</v>
@@ -10385,13 +10394,13 @@
         <v>812</v>
       </c>
       <c r="O198" s="5">
-        <f>IF(SUM(B198:E198)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P198" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -10420,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K199" s="5">
         <v>1300</v>
@@ -10435,13 +10444,13 @@
         <v>812</v>
       </c>
       <c r="O199" s="5">
-        <f>IF(SUM(B199:E199)=0,1,0)</f>
+        <v>0</v>
       </c>
       <c r="P199" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -10470,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K200" s="5">
         <v>1300</v>
@@ -10485,13 +10494,13 @@
         <v>812</v>
       </c>
       <c r="O200" s="5">
-        <f>IF(SUM(B200:E200)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P200" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -10520,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K201" s="5">
         <v>1300</v>
@@ -10535,13 +10544,13 @@
         <v>812</v>
       </c>
       <c r="O201" s="5">
-        <f>IF(SUM(B201:E201)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P201" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -10570,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="7">
-        <v>1206.173562292432</v>
+        <v>1206.1735622924321</v>
       </c>
       <c r="K202" s="5">
         <v>1300</v>
@@ -10585,7 +10594,7 @@
         <v>812</v>
       </c>
       <c r="O202" s="5">
-        <f>IF(SUM(B202:E202)=0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="P202" s="5">
         <v>1140</v>

--- a/entradas/entradas.xlsx
+++ b/entradas/entradas.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriela.freitas\Repositorios\LNGinventoryopt\entradas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B74D54-D9B2-4FAE-8693-3DB7A722AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cen1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Cen1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -83,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -98,13 +79,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -151,50 +132,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -205,10 +186,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -246,71 +227,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,7 +319,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -361,11 +342,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -374,13 +355,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +371,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -399,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -416,10 +397,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -484,26 +465,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -550,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -579,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K2" s="5">
         <v>1300</v>
@@ -600,7 +591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -629,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K3" s="5">
         <v>1300</v>
@@ -650,7 +641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -679,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K4" s="5">
         <v>1300</v>
@@ -700,7 +691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -729,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K5" s="5">
         <v>1300</v>
@@ -750,7 +741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -779,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K6" s="5">
         <v>1300</v>
@@ -800,7 +791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -829,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K7" s="5">
         <v>1300</v>
@@ -850,7 +841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -879,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K8" s="5">
         <v>1300</v>
@@ -900,7 +891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -929,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K9" s="5">
         <v>1300</v>
@@ -950,7 +941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -979,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K10" s="5">
         <v>1300</v>
@@ -1000,7 +991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1029,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K11" s="5">
         <v>1300</v>
@@ -1050,7 +1041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1079,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K12" s="5">
         <v>1300</v>
@@ -1100,7 +1091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1129,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K13" s="5">
         <v>1300</v>
@@ -1150,7 +1141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1179,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K14" s="5">
         <v>1300</v>
@@ -1200,7 +1191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1229,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K15" s="5">
         <v>1300</v>
@@ -1250,7 +1241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K16" s="5">
         <v>1300</v>
@@ -1300,7 +1291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1329,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K17" s="5">
         <v>1300</v>
@@ -1350,7 +1341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1379,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K18" s="5">
         <v>1300</v>
@@ -1400,7 +1391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1429,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K19" s="5">
         <v>1300</v>
@@ -1450,7 +1441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1479,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K20" s="5">
         <v>1300</v>
@@ -1500,7 +1491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1529,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K21" s="5">
         <v>1300</v>
@@ -1550,7 +1541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1579,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K22" s="5">
         <v>1300</v>
@@ -1600,7 +1591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1629,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K23" s="5">
         <v>1300</v>
@@ -1650,7 +1641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1679,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K24" s="5">
         <v>1300</v>
@@ -1700,7 +1691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1729,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K25" s="5">
         <v>1300</v>
@@ -1750,7 +1741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1779,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K26" s="5">
         <v>1300</v>
@@ -1800,7 +1791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1829,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K27" s="5">
         <v>1300</v>
@@ -1850,7 +1841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1879,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K28" s="5">
         <v>1300</v>
@@ -1900,7 +1891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1929,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K29" s="5">
         <v>1300</v>
@@ -1950,7 +1941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K30" s="5">
         <v>1300</v>
@@ -2000,7 +1991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2029,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K31" s="5">
         <v>1300</v>
@@ -2050,7 +2041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2079,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K32" s="5">
         <v>1300</v>
@@ -2100,7 +2091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2129,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K33" s="5">
         <v>1300</v>
@@ -2150,7 +2141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2179,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K34" s="5">
         <v>1300</v>
@@ -2200,7 +2191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2229,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K35" s="5">
         <v>1300</v>
@@ -2250,7 +2241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2279,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K36" s="5">
         <v>1300</v>
@@ -2300,7 +2291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2329,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K37" s="5">
         <v>1300</v>
@@ -2350,7 +2341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2379,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K38" s="5">
         <v>1300</v>
@@ -2400,7 +2391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2429,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K39" s="5">
         <v>1300</v>
@@ -2450,7 +2441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2479,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K40" s="5">
         <v>1300</v>
@@ -2500,7 +2491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2529,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K41" s="5">
         <v>1300</v>
@@ -2550,7 +2541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2579,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K42" s="5">
         <v>1300</v>
@@ -2600,7 +2591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2629,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K43" s="5">
         <v>1300</v>
@@ -2650,7 +2641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2679,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K44" s="5">
         <v>1300</v>
@@ -2700,7 +2691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K45" s="5">
         <v>1300</v>
@@ -2750,7 +2741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2779,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K46" s="5">
         <v>1300</v>
@@ -2800,7 +2791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2829,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K47" s="5">
         <v>1300</v>
@@ -2850,7 +2841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2879,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K48" s="5">
         <v>1300</v>
@@ -2900,7 +2891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2929,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K49" s="5">
         <v>1300</v>
@@ -2950,7 +2941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2979,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K50" s="5">
         <v>1300</v>
@@ -3000,7 +2991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3029,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K51" s="5">
         <v>1300</v>
@@ -3050,7 +3041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3079,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K52" s="5">
         <v>1300</v>
@@ -3100,7 +3091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3129,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K53" s="5">
         <v>1300</v>
@@ -3150,7 +3141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3179,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K54" s="5">
         <v>1300</v>
@@ -3200,7 +3191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3229,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K55" s="5">
         <v>1300</v>
@@ -3250,7 +3241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3279,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K56" s="5">
         <v>1300</v>
@@ -3300,7 +3291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3329,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K57" s="5">
         <v>1300</v>
@@ -3350,7 +3341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3379,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K58" s="5">
         <v>1300</v>
@@ -3400,7 +3391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3429,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K59" s="5">
         <v>1300</v>
@@ -3450,7 +3441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3479,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K60" s="5">
         <v>1300</v>
@@ -3500,7 +3491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3529,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K61" s="5">
         <v>1300</v>
@@ -3550,7 +3541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3579,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K62" s="5">
         <v>1300</v>
@@ -3600,7 +3591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3629,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K63" s="5">
         <v>1300</v>
@@ -3650,7 +3641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3679,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K64" s="5">
         <v>1300</v>
@@ -3700,7 +3691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3729,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K65" s="5">
         <v>1300</v>
@@ -3750,7 +3741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3779,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K66" s="5">
         <v>1300</v>
@@ -3800,7 +3791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3829,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K67" s="5">
         <v>1300</v>
@@ -3850,7 +3841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3879,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K68" s="5">
         <v>1300</v>
@@ -3900,7 +3891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3929,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K69" s="5">
         <v>1300</v>
@@ -3950,7 +3941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3979,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K70" s="5">
         <v>1300</v>
@@ -4000,7 +3991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -4029,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K71" s="5">
         <v>1300</v>
@@ -4050,7 +4041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -4079,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K72" s="5">
         <v>1300</v>
@@ -4100,7 +4091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -4129,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K73" s="5">
         <v>1300</v>
@@ -4150,7 +4141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4179,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K74" s="5">
         <v>1300</v>
@@ -4200,7 +4191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4229,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K75" s="5">
         <v>1300</v>
@@ -4250,7 +4241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4279,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K76" s="5">
         <v>1300</v>
@@ -4300,7 +4291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4329,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K77" s="5">
         <v>1300</v>
@@ -4350,7 +4341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4379,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K78" s="5">
         <v>1300</v>
@@ -4400,7 +4391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4429,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K79" s="5">
         <v>1300</v>
@@ -4450,7 +4441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4479,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K80" s="5">
         <v>1300</v>
@@ -4500,7 +4491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4529,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K81" s="5">
         <v>1300</v>
@@ -4550,7 +4541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4579,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K82" s="5">
         <v>1300</v>
@@ -4600,7 +4591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4629,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K83" s="5">
         <v>1300</v>
@@ -4650,7 +4641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4679,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K84" s="5">
         <v>1300</v>
@@ -4700,7 +4691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -4729,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K85" s="5">
         <v>1300</v>
@@ -4750,7 +4741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4779,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K86" s="5">
         <v>1300</v>
@@ -4800,7 +4791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4829,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K87" s="5">
         <v>1300</v>
@@ -4850,7 +4841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4879,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K88" s="5">
         <v>1300</v>
@@ -4900,7 +4891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4929,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K89" s="5">
         <v>1300</v>
@@ -4950,7 +4941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4979,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K90" s="5">
         <v>1300</v>
@@ -5000,7 +4991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -5029,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K91" s="5">
         <v>1300</v>
@@ -5050,7 +5041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -5079,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K92" s="5">
         <v>1300</v>
@@ -5100,7 +5091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -5129,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K93" s="5">
         <v>1300</v>
@@ -5150,7 +5141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -5179,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K94" s="5">
         <v>1300</v>
@@ -5200,7 +5191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -5229,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K95" s="5">
         <v>1300</v>
@@ -5250,7 +5241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -5279,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K96" s="5">
         <v>1300</v>
@@ -5300,7 +5291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -5329,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K97" s="5">
         <v>1300</v>
@@ -5350,7 +5341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -5379,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K98" s="5">
         <v>1300</v>
@@ -5400,7 +5391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -5429,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K99" s="5">
         <v>1300</v>
@@ -5450,7 +5441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -5479,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K100" s="5">
         <v>1300</v>
@@ -5500,7 +5491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -5529,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K101" s="5">
         <v>1300</v>
@@ -5550,7 +5541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -5579,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K102" s="5">
         <v>1300</v>
@@ -5600,7 +5591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -5629,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K103" s="5">
         <v>1300</v>
@@ -5650,7 +5641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -5679,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K104" s="5">
         <v>1300</v>
@@ -5700,7 +5691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -5729,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K105" s="5">
         <v>1300</v>
@@ -5750,7 +5741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -5779,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K106" s="5">
         <v>1300</v>
@@ -5800,7 +5791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -5829,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K107" s="5">
         <v>1300</v>
@@ -5850,7 +5841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -5879,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K108" s="5">
         <v>1300</v>
@@ -5900,7 +5891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -5929,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K109" s="5">
         <v>1300</v>
@@ -5950,7 +5941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -5979,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K110" s="5">
         <v>1300</v>
@@ -6000,7 +5991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -6029,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K111" s="5">
         <v>1300</v>
@@ -6050,7 +6041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -6079,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K112" s="5">
         <v>1300</v>
@@ -6100,7 +6091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -6129,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K113" s="5">
         <v>1300</v>
@@ -6150,7 +6141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -6179,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K114" s="5">
         <v>1300</v>
@@ -6200,7 +6191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -6229,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K115" s="5">
         <v>1300</v>
@@ -6250,7 +6241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -6279,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K116" s="5">
         <v>1300</v>
@@ -6300,7 +6291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -6329,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K117" s="5">
         <v>1300</v>
@@ -6350,7 +6341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -6379,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K118" s="5">
         <v>1300</v>
@@ -6400,7 +6391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -6429,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K119" s="5">
         <v>1300</v>
@@ -6450,7 +6441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -6479,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K120" s="5">
         <v>1300</v>
@@ -6500,7 +6491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -6529,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K121" s="5">
         <v>1300</v>
@@ -6550,7 +6541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -6579,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K122" s="5">
         <v>1300</v>
@@ -6600,7 +6591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -6629,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K123" s="5">
         <v>1300</v>
@@ -6650,7 +6641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -6679,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K124" s="5">
         <v>1300</v>
@@ -6700,7 +6691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -6729,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K125" s="5">
         <v>1300</v>
@@ -6750,7 +6741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -6779,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K126" s="5">
         <v>1300</v>
@@ -6800,7 +6791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -6829,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K127" s="5">
         <v>1300</v>
@@ -6850,7 +6841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -6879,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K128" s="5">
         <v>1300</v>
@@ -6900,7 +6891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -6929,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K129" s="5">
         <v>1300</v>
@@ -6950,7 +6941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -6979,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K130" s="5">
         <v>1300</v>
@@ -7000,7 +6991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -7029,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K131" s="5">
         <v>1300</v>
@@ -7050,7 +7041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -7079,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K132" s="5">
         <v>1300</v>
@@ -7100,7 +7091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -7129,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K133" s="5">
         <v>1300</v>
@@ -7150,7 +7141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -7179,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K134" s="5">
         <v>1300</v>
@@ -7200,7 +7191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -7229,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K135" s="5">
         <v>1300</v>
@@ -7250,7 +7241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -7279,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K136" s="5">
         <v>1300</v>
@@ -7300,7 +7291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -7329,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K137" s="5">
         <v>1300</v>
@@ -7350,7 +7341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -7379,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K138" s="5">
         <v>1300</v>
@@ -7400,7 +7391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -7429,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K139" s="5">
         <v>1300</v>
@@ -7450,7 +7441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -7479,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K140" s="5">
         <v>1300</v>
@@ -7500,7 +7491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -7529,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K141" s="5">
         <v>1300</v>
@@ -7550,7 +7541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -7579,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K142" s="5">
         <v>1300</v>
@@ -7600,7 +7591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -7629,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K143" s="5">
         <v>1300</v>
@@ -7650,7 +7641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -7679,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K144" s="5">
         <v>1300</v>
@@ -7700,7 +7691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -7729,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K145" s="5">
         <v>1300</v>
@@ -7750,7 +7741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -7779,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K146" s="5">
         <v>1300</v>
@@ -7800,7 +7791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -7829,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K147" s="5">
         <v>1300</v>
@@ -7850,7 +7841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -7879,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K148" s="5">
         <v>1300</v>
@@ -7900,7 +7891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -7929,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K149" s="5">
         <v>1300</v>
@@ -7950,7 +7941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -7979,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K150" s="5">
         <v>1300</v>
@@ -8000,7 +7991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -8029,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K151" s="5">
         <v>1300</v>
@@ -8050,7 +8041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -8079,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K152" s="5">
         <v>1300</v>
@@ -8100,7 +8091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -8129,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K153" s="5">
         <v>1300</v>
@@ -8150,7 +8141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -8179,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K154" s="5">
         <v>1300</v>
@@ -8200,7 +8191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -8229,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K155" s="5">
         <v>1300</v>
@@ -8250,7 +8241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -8279,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K156" s="5">
         <v>1300</v>
@@ -8300,7 +8291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -8329,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K157" s="5">
         <v>1300</v>
@@ -8350,7 +8341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -8379,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K158" s="5">
         <v>1300</v>
@@ -8400,7 +8391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -8429,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K159" s="5">
         <v>1300</v>
@@ -8450,7 +8441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -8479,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K160" s="5">
         <v>1300</v>
@@ -8500,7 +8491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -8529,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K161" s="5">
         <v>1300</v>
@@ -8550,7 +8541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -8579,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K162" s="5">
         <v>1300</v>
@@ -8600,7 +8591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -8629,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K163" s="5">
         <v>1300</v>
@@ -8650,7 +8641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -8679,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K164" s="5">
         <v>1300</v>
@@ -8700,7 +8691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -8729,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K165" s="5">
         <v>1300</v>
@@ -8750,7 +8741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -8779,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K166" s="5">
         <v>1300</v>
@@ -8800,7 +8791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -8829,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K167" s="5">
         <v>1300</v>
@@ -8850,7 +8841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -8879,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K168" s="5">
         <v>1300</v>
@@ -8900,7 +8891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -8929,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K169" s="5">
         <v>1300</v>
@@ -8950,7 +8941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -8979,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K170" s="5">
         <v>1300</v>
@@ -9000,7 +8991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -9029,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K171" s="5">
         <v>1300</v>
@@ -9050,7 +9041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -9079,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K172" s="5">
         <v>1300</v>
@@ -9100,7 +9091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -9129,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K173" s="5">
         <v>1300</v>
@@ -9150,7 +9141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -9179,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K174" s="5">
         <v>1300</v>
@@ -9200,7 +9191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -9229,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K175" s="5">
         <v>1300</v>
@@ -9250,7 +9241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -9279,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K176" s="5">
         <v>1300</v>
@@ -9300,7 +9291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -9329,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K177" s="5">
         <v>1300</v>
@@ -9350,7 +9341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -9379,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K178" s="5">
         <v>1300</v>
@@ -9400,7 +9391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -9429,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K179" s="5">
         <v>1300</v>
@@ -9450,7 +9441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -9479,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K180" s="5">
         <v>1300</v>
@@ -9500,7 +9491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -9529,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K181" s="5">
         <v>1300</v>
@@ -9550,7 +9541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -9579,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K182" s="5">
         <v>1300</v>
@@ -9600,7 +9591,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -9629,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K183" s="5">
         <v>1300</v>
@@ -9650,7 +9641,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -9679,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K184" s="5">
         <v>1300</v>
@@ -9700,7 +9691,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -9729,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K185" s="5">
         <v>1300</v>
@@ -9750,7 +9741,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -9779,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K186" s="5">
         <v>1300</v>
@@ -9800,7 +9791,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -9829,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K187" s="5">
         <v>1300</v>
@@ -9850,7 +9841,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -9879,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K188" s="5">
         <v>1300</v>
@@ -9900,7 +9891,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -9929,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K189" s="5">
         <v>1300</v>
@@ -9950,7 +9941,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -9979,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K190" s="5">
         <v>1300</v>
@@ -10000,7 +9991,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -10029,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K191" s="5">
         <v>1300</v>
@@ -10050,7 +10041,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -10079,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K192" s="5">
         <v>1300</v>
@@ -10100,7 +10091,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -10129,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K193" s="5">
         <v>1300</v>
@@ -10150,7 +10141,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -10179,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K194" s="5">
         <v>1300</v>
@@ -10200,7 +10191,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -10229,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K195" s="5">
         <v>1300</v>
@@ -10250,7 +10241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -10279,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K196" s="5">
         <v>1300</v>
@@ -10300,7 +10291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -10329,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K197" s="5">
         <v>1300</v>
@@ -10350,7 +10341,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -10379,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K198" s="5">
         <v>1300</v>
@@ -10400,7 +10391,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -10429,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K199" s="5">
         <v>1300</v>
@@ -10450,7 +10441,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -10479,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K200" s="5">
         <v>1300</v>
@@ -10500,7 +10491,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -10529,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K201" s="5">
         <v>1300</v>
@@ -10550,7 +10541,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -10579,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="7">
-        <v>1206.1735622924321</v>
+        <v>1206.173562292432</v>
       </c>
       <c r="K202" s="5">
         <v>1300</v>
